--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.0479673185487</v>
+        <v>135.7046583333333</v>
       </c>
       <c r="H2">
-        <v>23.0479673185487</v>
+        <v>407.113975</v>
       </c>
       <c r="I2">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="J2">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.39991412827579</v>
+        <v>3.847811666666666</v>
       </c>
       <c r="N2">
-        <v>3.39991412827579</v>
+        <v>11.543435</v>
       </c>
       <c r="O2">
-        <v>0.03555949751607509</v>
+        <v>0.0396810199351781</v>
       </c>
       <c r="P2">
-        <v>0.03555949751607509</v>
+        <v>0.03968101993517809</v>
       </c>
       <c r="Q2">
-        <v>78.3611097143724</v>
+        <v>522.1659675560138</v>
       </c>
       <c r="R2">
-        <v>78.3611097143724</v>
+        <v>4699.493708004125</v>
       </c>
       <c r="S2">
-        <v>0.002341209589047917</v>
+        <v>0.01151484914790297</v>
       </c>
       <c r="T2">
-        <v>0.002341209589047917</v>
+        <v>0.01151484914790297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.0479673185487</v>
+        <v>135.7046583333333</v>
       </c>
       <c r="H3">
-        <v>23.0479673185487</v>
+        <v>407.113975</v>
       </c>
       <c r="I3">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="J3">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.666760962694</v>
+        <v>57.80210733333333</v>
       </c>
       <c r="N3">
-        <v>57.666760962694</v>
+        <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="P3">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="Q3">
-        <v>1329.101622034731</v>
+        <v>7844.015226616661</v>
       </c>
       <c r="R3">
-        <v>1329.101622034731</v>
+        <v>70596.13703954994</v>
       </c>
       <c r="S3">
-        <v>0.03970981873111642</v>
+        <v>0.1729769032461038</v>
       </c>
       <c r="T3">
-        <v>0.03970981873111642</v>
+        <v>0.1729769032461038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.0479673185487</v>
+        <v>135.7046583333333</v>
       </c>
       <c r="H4">
-        <v>23.0479673185487</v>
+        <v>407.113975</v>
       </c>
       <c r="I4">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="J4">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.8283288869428</v>
+        <v>6.066157</v>
       </c>
       <c r="N4">
-        <v>5.8283288869428</v>
+        <v>18.198471</v>
       </c>
       <c r="O4">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="P4">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="Q4">
-        <v>134.331133708011</v>
+        <v>823.2057630813583</v>
       </c>
       <c r="R4">
-        <v>134.331133708011</v>
+        <v>7408.851867732225</v>
       </c>
       <c r="S4">
-        <v>0.004013436505573001</v>
+        <v>0.01815340479566844</v>
       </c>
       <c r="T4">
-        <v>0.004013436505573001</v>
+        <v>0.01815340479566844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.0479673185487</v>
+        <v>135.7046583333333</v>
       </c>
       <c r="H5">
-        <v>23.0479673185487</v>
+        <v>407.113975</v>
       </c>
       <c r="I5">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="J5">
-        <v>0.06583922025302934</v>
+        <v>0.2901853119378819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.7169806047947</v>
+        <v>29.25249166666667</v>
       </c>
       <c r="N5">
-        <v>28.7169806047947</v>
+        <v>87.757475</v>
       </c>
       <c r="O5">
-        <v>0.3003491741137705</v>
+        <v>0.3016698335405271</v>
       </c>
       <c r="P5">
-        <v>0.3003491741137705</v>
+        <v>0.301669833540527</v>
       </c>
       <c r="Q5">
-        <v>661.8680304667051</v>
+        <v>3969.699387023681</v>
       </c>
       <c r="R5">
-        <v>661.8680304667051</v>
+        <v>35727.29448321313</v>
       </c>
       <c r="S5">
-        <v>0.01977475542729199</v>
+        <v>0.08754015474820677</v>
       </c>
       <c r="T5">
-        <v>0.01977475542729199</v>
+        <v>0.08754015474820676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>225.401984005126</v>
+        <v>226.082006</v>
       </c>
       <c r="H6">
-        <v>225.401984005126</v>
+        <v>678.246018</v>
       </c>
       <c r="I6">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="J6">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39991412827579</v>
+        <v>3.847811666666666</v>
       </c>
       <c r="N6">
-        <v>3.39991412827579</v>
+        <v>11.543435</v>
       </c>
       <c r="O6">
-        <v>0.03555949751607509</v>
+        <v>0.0396810199351781</v>
       </c>
       <c r="P6">
-        <v>0.03555949751607509</v>
+        <v>0.03968101993517809</v>
       </c>
       <c r="Q6">
-        <v>766.3473899604215</v>
+        <v>869.9209803102033</v>
       </c>
       <c r="R6">
-        <v>766.3473899604215</v>
+        <v>7829.28882279183</v>
       </c>
       <c r="S6">
-        <v>0.02289630486930314</v>
+        <v>0.01918357281259107</v>
       </c>
       <c r="T6">
-        <v>0.02289630486930314</v>
+        <v>0.01918357281259107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>225.401984005126</v>
+        <v>226.082006</v>
       </c>
       <c r="H7">
-        <v>225.401984005126</v>
+        <v>678.246018</v>
       </c>
       <c r="I7">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="J7">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.666760962694</v>
+        <v>57.80210733333333</v>
       </c>
       <c r="N7">
-        <v>57.666760962694</v>
+        <v>173.406322</v>
       </c>
       <c r="O7">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="P7">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="Q7">
-        <v>12998.20233214058</v>
+        <v>13068.01637694731</v>
       </c>
       <c r="R7">
-        <v>12998.20233214058</v>
+        <v>117612.1473925258</v>
       </c>
       <c r="S7">
-        <v>0.3883497317906284</v>
+        <v>0.2881770291295973</v>
       </c>
       <c r="T7">
-        <v>0.3883497317906284</v>
+        <v>0.2881770291295973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>225.401984005126</v>
+        <v>226.082006</v>
       </c>
       <c r="H8">
-        <v>225.401984005126</v>
+        <v>678.246018</v>
       </c>
       <c r="I8">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="J8">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.8283288869428</v>
+        <v>6.066157</v>
       </c>
       <c r="N8">
-        <v>5.8283288869428</v>
+        <v>18.198471</v>
       </c>
       <c r="O8">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="P8">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="Q8">
-        <v>1313.716894551295</v>
+        <v>1371.448943270942</v>
       </c>
       <c r="R8">
-        <v>1313.716894551295</v>
+        <v>12343.04048943848</v>
       </c>
       <c r="S8">
-        <v>0.0392501663392552</v>
+        <v>0.03024331089544205</v>
       </c>
       <c r="T8">
-        <v>0.0392501663392552</v>
+        <v>0.03024331089544205</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>225.401984005126</v>
+        <v>226.082006</v>
       </c>
       <c r="H9">
-        <v>225.401984005126</v>
+        <v>678.246018</v>
       </c>
       <c r="I9">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="J9">
-        <v>0.6438871881964192</v>
+        <v>0.4834445496594812</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.7169806047947</v>
+        <v>29.25249166666667</v>
       </c>
       <c r="N9">
-        <v>28.7169806047947</v>
+        <v>87.757475</v>
       </c>
       <c r="O9">
-        <v>0.3003491741137705</v>
+        <v>0.3016698335405271</v>
       </c>
       <c r="P9">
-        <v>0.3003491741137705</v>
+        <v>0.301669833540527</v>
       </c>
       <c r="Q9">
-        <v>6472.864402957448</v>
+        <v>6613.461996498284</v>
       </c>
       <c r="R9">
-        <v>6472.864402957448</v>
+        <v>59521.15796848456</v>
       </c>
       <c r="S9">
-        <v>0.1933909851972325</v>
+        <v>0.1458406368218508</v>
       </c>
       <c r="T9">
-        <v>0.1933909851972325</v>
+        <v>0.1458406368218507</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.147772683118629</v>
+        <v>0.1600446666666666</v>
       </c>
       <c r="H10">
-        <v>0.147772683118629</v>
+        <v>0.4801339999999999</v>
       </c>
       <c r="I10">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="J10">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.39991412827579</v>
+        <v>3.847811666666666</v>
       </c>
       <c r="N10">
-        <v>3.39991412827579</v>
+        <v>11.543435</v>
       </c>
       <c r="O10">
-        <v>0.03555949751607509</v>
+        <v>0.0396810199351781</v>
       </c>
       <c r="P10">
-        <v>0.03555949751607509</v>
+        <v>0.03968101993517809</v>
       </c>
       <c r="Q10">
-        <v>0.5024144331082481</v>
+        <v>0.6158217355877776</v>
       </c>
       <c r="R10">
-        <v>0.5024144331082481</v>
+        <v>5.542395620289999</v>
       </c>
       <c r="S10">
-        <v>1.501073035791074E-05</v>
+        <v>1.358015425724269E-05</v>
       </c>
       <c r="T10">
-        <v>1.501073035791074E-05</v>
+        <v>1.358015425724268E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.147772683118629</v>
+        <v>0.1600446666666666</v>
       </c>
       <c r="H11">
-        <v>0.147772683118629</v>
+        <v>0.4801339999999999</v>
       </c>
       <c r="I11">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="J11">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.666760962694</v>
+        <v>57.80210733333333</v>
       </c>
       <c r="N11">
-        <v>57.666760962694</v>
+        <v>173.406322</v>
       </c>
       <c r="O11">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="P11">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="Q11">
-        <v>8.521571994217906</v>
+        <v>9.250919000794221</v>
       </c>
       <c r="R11">
-        <v>8.521571994217906</v>
+        <v>83.25827100714798</v>
       </c>
       <c r="S11">
-        <v>0.0002546006065935782</v>
+        <v>0.0002040020671438871</v>
       </c>
       <c r="T11">
-        <v>0.0002546006065935782</v>
+        <v>0.0002040020671438871</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.147772683118629</v>
+        <v>0.1600446666666666</v>
       </c>
       <c r="H12">
-        <v>0.147772683118629</v>
+        <v>0.4801339999999999</v>
       </c>
       <c r="I12">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="J12">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.8283288869428</v>
+        <v>6.066157</v>
       </c>
       <c r="N12">
-        <v>5.8283288869428</v>
+        <v>18.198471</v>
       </c>
       <c r="O12">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="P12">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="Q12">
-        <v>0.8612677977213501</v>
+        <v>0.9708560750126666</v>
       </c>
       <c r="R12">
-        <v>0.8612677977213501</v>
+        <v>8.737704675113999</v>
       </c>
       <c r="S12">
-        <v>2.573225971547941E-05</v>
+        <v>2.140940226422704E-05</v>
       </c>
       <c r="T12">
-        <v>2.573225971547941E-05</v>
+        <v>2.140940226422704E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.147772683118629</v>
+        <v>0.1600446666666666</v>
       </c>
       <c r="H13">
-        <v>0.147772683118629</v>
+        <v>0.4801339999999999</v>
       </c>
       <c r="I13">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="J13">
-        <v>0.0004221299907605545</v>
+        <v>0.0003422329939962955</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.7169806047947</v>
+        <v>29.25249166666667</v>
       </c>
       <c r="N13">
-        <v>28.7169806047947</v>
+        <v>87.757475</v>
       </c>
       <c r="O13">
-        <v>0.3003491741137705</v>
+        <v>0.3016698335405271</v>
       </c>
       <c r="P13">
-        <v>0.3003491741137705</v>
+        <v>0.301669833540527</v>
       </c>
       <c r="Q13">
-        <v>4.243585275036143</v>
+        <v>4.68170527796111</v>
       </c>
       <c r="R13">
-        <v>4.243585275036143</v>
+        <v>42.13534750165</v>
       </c>
       <c r="S13">
-        <v>0.0001267863940935861</v>
+        <v>0.0001032413703309387</v>
       </c>
       <c r="T13">
-        <v>0.0001267863940935861</v>
+        <v>0.0001032413703309386</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>101.466678790994</v>
+        <v>105.7015583333333</v>
       </c>
       <c r="H14">
-        <v>101.466678790994</v>
+        <v>317.104675</v>
       </c>
       <c r="I14">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="J14">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.39991412827579</v>
+        <v>3.847811666666666</v>
       </c>
       <c r="N14">
-        <v>3.39991412827579</v>
+        <v>11.543435</v>
       </c>
       <c r="O14">
-        <v>0.03555949751607509</v>
+        <v>0.0396810199351781</v>
       </c>
       <c r="P14">
-        <v>0.03555949751607509</v>
+        <v>0.03968101993517809</v>
       </c>
       <c r="Q14">
-        <v>344.9779947707219</v>
+        <v>406.7196893398472</v>
       </c>
       <c r="R14">
-        <v>344.9779947707219</v>
+        <v>3660.477204058624</v>
       </c>
       <c r="S14">
-        <v>0.01030697232736612</v>
+        <v>0.008969017820426818</v>
       </c>
       <c r="T14">
-        <v>0.01030697232736612</v>
+        <v>0.008969017820426816</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>101.466678790994</v>
+        <v>105.7015583333333</v>
       </c>
       <c r="H15">
-        <v>101.466678790994</v>
+        <v>317.104675</v>
       </c>
       <c r="I15">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="J15">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.666760962694</v>
+        <v>57.80210733333333</v>
       </c>
       <c r="N15">
-        <v>57.666760962694</v>
+        <v>173.406322</v>
       </c>
       <c r="O15">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="P15">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="Q15">
-        <v>5851.254711518704</v>
+        <v>6109.772820083927</v>
       </c>
       <c r="R15">
-        <v>5851.254711518704</v>
+        <v>54987.95538075535</v>
       </c>
       <c r="S15">
-        <v>0.1748190357245136</v>
+        <v>0.1347332394727107</v>
       </c>
       <c r="T15">
-        <v>0.1748190357245136</v>
+        <v>0.1347332394727107</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>101.466678790994</v>
+        <v>105.7015583333333</v>
       </c>
       <c r="H16">
-        <v>101.466678790994</v>
+        <v>317.104675</v>
       </c>
       <c r="I16">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="J16">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.8283288869428</v>
+        <v>6.066157</v>
       </c>
       <c r="N16">
-        <v>5.8283288869428</v>
+        <v>18.198471</v>
       </c>
       <c r="O16">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="P16">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="Q16">
-        <v>591.3811750596966</v>
+        <v>641.2022479946584</v>
       </c>
       <c r="R16">
-        <v>591.3811750596966</v>
+        <v>5770.820231951925</v>
       </c>
       <c r="S16">
-        <v>0.01766880641275865</v>
+        <v>0.01413984751536442</v>
       </c>
       <c r="T16">
-        <v>0.01766880641275865</v>
+        <v>0.01413984751536442</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>101.466678790994</v>
+        <v>105.7015583333333</v>
       </c>
       <c r="H17">
-        <v>101.466678790994</v>
+        <v>317.104675</v>
       </c>
       <c r="I17">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="J17">
-        <v>0.2898514615597909</v>
+        <v>0.2260279054086406</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.7169806047947</v>
+        <v>29.25249166666667</v>
       </c>
       <c r="N17">
-        <v>28.7169806047947</v>
+        <v>87.757475</v>
       </c>
       <c r="O17">
-        <v>0.3003491741137705</v>
+        <v>0.3016698335405271</v>
       </c>
       <c r="P17">
-        <v>0.3003491741137705</v>
+        <v>0.301669833540527</v>
       </c>
       <c r="Q17">
-        <v>2913.816646873908</v>
+        <v>3092.033954299514</v>
       </c>
       <c r="R17">
-        <v>2913.816646873908</v>
+        <v>27828.30558869562</v>
       </c>
       <c r="S17">
-        <v>0.0870566470951525</v>
+        <v>0.06818580060013861</v>
       </c>
       <c r="T17">
-        <v>0.0870566470951525</v>
+        <v>0.0681858006001386</v>
       </c>
     </row>
   </sheetData>
